--- a/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P12_3_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>8.230733469174687</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>6.715972874824887</v>
+        <v>6.715972874824888</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>6.321397203615478</v>
@@ -664,7 +664,7 @@
         <v>6.913338403622313</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.353524275785066</v>
+        <v>6.353524275785069</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.973031760938137</v>
+        <v>1.922551572812849</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.984100127989942</v>
+        <v>3.105440430278885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.351256387460036</v>
+        <v>3.276098273684287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.256892184180989</v>
+        <v>5.105750099833677</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.17680720971327</v>
+        <v>4.968972707717304</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.088180554806268</v>
+        <v>4.127048851562</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.297280679407716</v>
+        <v>4.219834871413556</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.861454296934134</v>
+        <v>4.754032032272092</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.570223884495815</v>
+        <v>4.50825448427404</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.843545683734691</v>
+        <v>7.002146077111229</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.44656740274994</v>
+        <v>8.387193520097137</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.830431030531669</v>
+        <v>8.698307332610778</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.82734425132184</v>
+        <v>11.50440935414837</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.66016371790562</v>
+        <v>11.24367658477114</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.247086288553017</v>
+        <v>9.286264740599249</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.519972995364531</v>
+        <v>8.474353100934289</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>9.272677000750789</v>
+        <v>9.234937729596366</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.285245057620136</v>
+        <v>8.179779876747148</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3947005448326623</v>
+        <v>0.3429178148041989</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.5748532368075876</v>
+        <v>0.5823736936566863</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6254110044493845</v>
+        <v>0.6609213699248284</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7566197161715489</v>
+        <v>0.6803668050311154</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7369456935100511</v>
+        <v>0.7067827624031068</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5736541316721711</v>
+        <v>0.5829798785360426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.747406751344793</v>
+        <v>0.737513318505316</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.8319179155739211</v>
+        <v>0.8257071688486514</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.7988059792100586</v>
+        <v>0.7802863490921841</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.308765653360845</v>
+        <v>2.272877362678231</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.800490892927615</v>
+        <v>2.779602446168937</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.916942798125826</v>
+        <v>2.80534712827637</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>2.794988770263914</v>
+        <v>2.44143244603983</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.592134804433589</v>
+        <v>2.524747197599199</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.130313166556578</v>
+        <v>2.193881099504089</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.188572360968977</v>
+        <v>2.135463916326006</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.348608220503395</v>
+        <v>2.276070063954181</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.007852152015924</v>
+        <v>2.047615133309772</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-0.401482840220075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.212788614159353</v>
+        <v>3.212788614159352</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.812598684137541</v>
@@ -878,7 +878,7 @@
         <v>0.03194810497632455</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.909823391927337</v>
+        <v>4.909823391927335</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2261407389623584</v>
+        <v>-0.1760124859797823</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.669717497911656</v>
+        <v>-2.502493537868401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.834296514994199</v>
+        <v>0.6509607342137662</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.075938627592491</v>
+        <v>1.733893570342277</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.374029986637721</v>
+        <v>-2.401343150884503</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.958794153501092</v>
+        <v>3.92213471489099</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.338456056732597</v>
+        <v>1.695306110304622</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.538628974757791</v>
+        <v>-1.723397843210248</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.07468776768923</v>
+        <v>2.963539706617756</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.657728870957303</v>
+        <v>4.566061408236132</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.503540047243667</v>
+        <v>1.771720151283964</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.663710973012532</v>
+        <v>5.66892450966388</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.83731781281897</v>
+        <v>7.51201285922451</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.251428262973504</v>
+        <v>3.113702960752994</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.301285587248485</v>
+        <v>9.223588794240333</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.240053543917491</v>
+        <v>5.313867607300617</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.898129348715882</v>
+        <v>1.549218842589313</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.643385855075522</v>
+        <v>6.479072517696546</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.06714628678458902</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5373251458178246</v>
+        <v>0.5373251458178244</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.5481524109301124</v>
@@ -983,7 +983,7 @@
         <v>0.004326530375346161</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.6649064180332668</v>
+        <v>0.6649064180332666</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.03064110082284438</v>
+        <v>-0.03578175056415719</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3590394246635794</v>
+        <v>-0.3481973997468261</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.107995358041821</v>
+        <v>0.08283085048850186</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2071913445238271</v>
+        <v>0.1766142893174326</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2392915555359101</v>
+        <v>-0.2335409023014371</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3678166042976205</v>
+        <v>0.3739556941410728</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1640754380128551</v>
+        <v>0.2062655881148005</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1977798908287103</v>
+        <v>-0.2103394668990061</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3649444487350499</v>
+        <v>0.350538782792379</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9572808377360082</v>
+        <v>0.9046834129998267</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3155806813227892</v>
+        <v>0.3656029274384603</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.141743659154759</v>
+        <v>1.130356001277937</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.041522580705097</v>
+        <v>1.011613164419367</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4384755884014543</v>
+        <v>0.4135706331472888</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.268266964880115</v>
+        <v>1.247773980073843</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7832672802669274</v>
+        <v>0.8116486189437376</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2927767247825246</v>
+        <v>0.2277115148025529</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9977102162947831</v>
+        <v>0.9959404950485827</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.567224517044627</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.289071425058016</v>
+        <v>5.289071425058022</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.7251488837630364</v>
+        <v>-0.8066242484087829</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.009551821423072</v>
+        <v>-0.8765183568678272</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.703045442755299</v>
+        <v>2.433153433422227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9040332495010337</v>
+        <v>0.8870659564300918</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3491641163809788</v>
+        <v>0.1997421335086076</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.85841784393785</v>
+        <v>2.040903949026987</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7953007772403029</v>
+        <v>0.7448188358561122</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6970992214298893</v>
+        <v>0.4709667757722247</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.443009441276258</v>
+        <v>3.328442716444001</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.472672850262803</v>
+        <v>4.387071502730653</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.521471343123591</v>
+        <v>4.530180294821767</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>9.092763939177861</v>
+        <v>8.602092864582499</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.172198087340028</v>
+        <v>6.911842126935909</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.493635715775619</v>
+        <v>6.358797676804437</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.714440757393527</v>
+        <v>7.727939865756898</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.826205826520872</v>
+        <v>4.783788994942456</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.573569833056178</v>
+        <v>4.549578834853878</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.506427867289187</v>
+        <v>7.52552615388657</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.4058249539773373</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8360925012230659</v>
+        <v>0.8360925012230668</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1124803359729204</v>
+        <v>-0.1388994877517407</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1763342652065799</v>
+        <v>-0.1459755479996841</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3849774163122842</v>
+        <v>0.3657412619639343</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1040287327387332</v>
+        <v>0.08684691164467404</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0366118280807233</v>
+        <v>0.0186937124148677</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1934490145821312</v>
+        <v>0.222057128586156</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1036415866915031</v>
+        <v>0.08125989053059295</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.09401548952021187</v>
+        <v>0.05846306273436343</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4692663427327949</v>
+        <v>0.4262193402843312</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.309948533413139</v>
+        <v>1.112599102637287</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.220429418721621</v>
+        <v>1.151537571504146</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.313064650684197</v>
+        <v>2.277030862501905</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.145934832179643</v>
+        <v>1.120328685942947</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.055974096500122</v>
+        <v>1.050357135108485</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.236057871665839</v>
+        <v>1.269229923986212</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8979758903650761</v>
+        <v>0.8374386630027206</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8635295588925825</v>
+        <v>0.8261378239460452</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.391969003729004</v>
+        <v>1.350120815690613</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.260994200013641</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.300701623880274</v>
+        <v>7.300701623880275</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.284076242775159</v>
@@ -1297,7 +1297,7 @@
         <v>2.871475967883454</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>6.350792427951222</v>
+        <v>6.350792427951226</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.573802749431536</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.535996614266657</v>
+        <v>1.48732731742165</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.037944919487713</v>
+        <v>1.065992291708485</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.709426985468243</v>
+        <v>4.661470874485643</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6097477397280143</v>
+        <v>0.103498664713106</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.2028692776466657</v>
+        <v>-0.4226754220316638</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.37572128980046</v>
+        <v>3.728360919996862</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.530479873370296</v>
+        <v>1.71913115865986</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.185766676197319</v>
+        <v>1.276593491294709</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.013522001689958</v>
+        <v>4.994328317791005</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.255302953503068</v>
+        <v>6.210377781147915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.532345013620036</v>
+        <v>5.828326200622469</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.21709257170274</v>
+        <v>9.827012762983932</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.560325474378646</v>
+        <v>6.609390537996967</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.977967446110914</v>
+        <v>5.899140791623364</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.083164118085195</v>
+        <v>9.053708242694732</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.422623704343703</v>
+        <v>5.415454685460168</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.003925934314339</v>
+        <v>5.06111023314638</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.794448400597052</v>
+        <v>8.704766192924007</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.269947120476524</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5970372546538155</v>
+        <v>0.5970372546538157</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4507550043840647</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2456855740570212</v>
+        <v>0.2439830570894644</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1503971107227102</v>
+        <v>0.1365787769326562</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7421075954323317</v>
+        <v>0.7387093256392788</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04839947919940906</v>
+        <v>0.005347502188356102</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01884498965745435</v>
+        <v>-0.03785323215578107</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.272310714555315</v>
+        <v>0.3109006607143656</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1659771353930791</v>
+        <v>0.1892625643527835</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1315896421694324</v>
+        <v>0.1483690147923669</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5633662549088697</v>
+        <v>0.5368911365766167</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.591537782318062</v>
+        <v>1.5147484682614</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.36050341072499</v>
+        <v>1.423399299556448</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.604292171555258</v>
+        <v>2.353694499787991</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6751353050448884</v>
+        <v>0.7264957125760425</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6363718897001321</v>
+        <v>0.6450636556316219</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9662050948323544</v>
+        <v>0.9954746044933604</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7303246829892873</v>
+        <v>0.7595615346848266</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6960934043282269</v>
+        <v>0.7276906299896894</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.253549554316336</v>
+        <v>1.238492488868891</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.311430131281165</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.478572149829134</v>
+        <v>5.478572149829133</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.815909475456018</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.806975015842883</v>
+        <v>1.867426310253741</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.1175368918432</v>
+        <v>1.155527039281373</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.054053195962841</v>
+        <v>4.138269632100258</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.306486859561343</v>
+        <v>3.379692998301596</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.621312195008139</v>
+        <v>1.702101872035239</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.815104795405023</v>
+        <v>4.808277680719339</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.99421327321911</v>
+        <v>2.902086327342703</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.845489312106749</v>
+        <v>1.900823596178013</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.784850559854815</v>
+        <v>4.905161691271266</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.34018963330918</v>
+        <v>4.252984481450624</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.557039325010636</v>
+        <v>3.515317009219789</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.721781081406062</v>
+        <v>6.739538768816013</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.464785357587221</v>
+        <v>6.341964214907859</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.872070791906661</v>
+        <v>4.728140137717235</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.575359718968579</v>
+        <v>7.583438252787035</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.925557498211294</v>
+        <v>4.899510561804914</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.765627902669149</v>
+        <v>3.868161504578155</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.738643298386688</v>
+        <v>6.845056597450111</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4561096969208678</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.081075239523956</v>
+        <v>1.081075239523955</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5679734713974239</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.322671707476879</v>
+        <v>0.3187951034505948</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1962730622136809</v>
+        <v>0.2013077866404379</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7238178081697927</v>
+        <v>0.7181174655732735</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3645273886602785</v>
+        <v>0.3591824072767574</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1744819970177182</v>
+        <v>0.1849910029860844</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5076496883991386</v>
+        <v>0.5094454644076476</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4133783757157441</v>
+        <v>0.3998806585470983</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2538654849098446</v>
+        <v>0.259103886906986</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6557576292325681</v>
+        <v>0.6636625055459495</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.9555874310620694</v>
+        <v>0.935836319968508</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.7811260475576052</v>
+        <v>0.7851182539447625</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.483911930922689</v>
+        <v>1.468528794999527</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8348533177188182</v>
+        <v>0.8311082649554713</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.6175265113033408</v>
+        <v>0.6134882622521458</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.9758195919292194</v>
+        <v>0.9779056479402138</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7685002594879368</v>
+        <v>0.7768119640861644</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5915048197606176</v>
+        <v>0.6096201986119394</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.048530776792529</v>
+        <v>1.077119595262273</v>
       </c>
     </row>
     <row r="34">
